--- a/data/light-reading-cloud/reading-cloud-homepage_structure.xlsx
+++ b/data/light-reading-cloud/reading-cloud-homepage_structure.xlsx
@@ -768,40 +768,46 @@
     <t>query</t>
   </si>
   <si>
+    <t>authorName</t>
+  </si>
+  <si>
+    <t>bookName</t>
+  </si>
+  <si>
+    <t>authorId</t>
+  </si>
+  <si>
+    <t>imgUrl</t>
+  </si>
+  <si>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>serialStatusName</t>
+  </si>
+  <si>
+    <t>wordCount</t>
+  </si>
+  <si>
     <t>bookScore</t>
   </si>
   <si>
-    <t>wordCount</t>
-  </si>
-  <si>
-    <t>categoryName</t>
-  </si>
-  <si>
-    <t>imgUrl</t>
-  </si>
-  <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>bookName</t>
+    <t>likeCount</t>
+  </si>
+  <si>
+    <t>bookId</t>
   </si>
   <si>
     <t>introduction</t>
   </si>
   <si>
-    <t>authorId</t>
-  </si>
-  <si>
-    <t>likeCount</t>
-  </si>
-  <si>
-    <t>bookId</t>
-  </si>
-  <si>
-    <t>serialStatusName</t>
-  </si>
-  <si>
-    <t>authorName</t>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>cn.zealon.readingcloud.common.cache.RedisService</t>
   </si>
   <si>
     <t>bookClient</t>
@@ -810,67 +816,64 @@
     <t>cn.zealon.readingcloud.book.feign.client.BookClient</t>
   </si>
   <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>cn.zealon.readingcloud.common.cache.RedisService</t>
-  </si>
-  <si>
     <t>indexPageConfigService</t>
   </si>
   <si>
     <t>MAPPER_LOCATIONS</t>
   </si>
   <si>
+    <t>jestClient</t>
+  </si>
+  <si>
+    <t>hotSearchWordMapper</t>
+  </si>
+  <si>
+    <t>LOGGER</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
+    <t>indexType</t>
+  </si>
+  <si>
     <t>aliasName</t>
   </si>
   <si>
-    <t>LOGGER</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
-    <t>jestClient</t>
-  </si>
-  <si>
-    <t>indexType</t>
-  </si>
-  <si>
-    <t>hotSearchWordMapper</t>
-  </si>
-  <si>
     <t>indexBooklistItemService</t>
   </si>
   <si>
     <t>es_servers</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>items</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>indexBooklistMapper</t>
   </si>
   <si>
+    <t>categoryId</t>
+  </si>
+  <si>
     <t>keyword</t>
   </si>
   <si>
     <t>lastUpdateChapterName</t>
   </si>
   <si>
-    <t>categoryId</t>
+    <t>lastUpdateChapterDate</t>
   </si>
   <si>
     <t>lastUpdateChapterId</t>
   </si>
   <si>
-    <t>lastUpdateChapterDate</t>
+    <t>moreUrl</t>
   </si>
   <si>
     <t>randomNumber</t>
@@ -882,58 +885,55 @@
     <t>showLikeCount</t>
   </si>
   <si>
-    <t>moreUrl</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
     <t>moreType</t>
   </si>
   <si>
+    <t>dicCategory</t>
+  </si>
+  <si>
     <t>author</t>
   </si>
   <si>
-    <t>dicCategory</t>
-  </si>
-  <si>
     <t>indexBannerMapper</t>
   </si>
   <si>
     <t>indexBannerItemMapper</t>
   </si>
   <si>
+    <t>indexBannerService</t>
+  </si>
+  <si>
     <t>indexBooklistService</t>
   </si>
   <si>
     <t>indexPageConfigMapper</t>
   </si>
   <si>
-    <t>indexBannerService</t>
+    <t>itemId</t>
+  </si>
+  <si>
+    <t>booklist</t>
+  </si>
+  <si>
+    <t>banner</t>
   </si>
   <si>
     <t>itemType</t>
   </si>
   <si>
-    <t>banner</t>
-  </si>
-  <si>
-    <t>itemId</t>
-  </si>
-  <si>
-    <t>booklist</t>
-  </si>
-  <si>
     <t>bookList</t>
   </si>
   <si>
     <t>total</t>
   </si>
   <si>
+    <t>bookCenterService</t>
+  </si>
+  <si>
     <t>indexBooklistItemMapper</t>
-  </si>
-  <si>
-    <t>bookCenterService</t>
   </si>
   <si>
     <t>likeSeeClient</t>
@@ -13690,7 +13690,7 @@
         <v>102</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -13704,7 +13704,7 @@
         <v>102</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -13718,7 +13718,7 @@
         <v>102</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -13816,7 +13816,7 @@
         <v>102</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
@@ -13914,7 +13914,7 @@
         <v>102</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -13928,7 +13928,7 @@
         <v>102</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>268</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
@@ -13936,13 +13936,13 @@
         <v>104</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>112</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25">
@@ -13970,7 +13970,7 @@
         <v>102</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -13992,13 +13992,13 @@
         <v>110</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>13</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
@@ -14006,13 +14006,13 @@
         <v>110</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>268</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -14026,7 +14026,7 @@
         <v>102</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
@@ -14034,13 +14034,13 @@
         <v>85</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -14048,13 +14048,13 @@
         <v>85</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -14068,7 +14068,7 @@
         <v>102</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
@@ -14076,13 +14076,13 @@
         <v>122</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>38</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
@@ -14090,13 +14090,13 @@
         <v>122</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36">
@@ -14104,13 +14104,13 @@
         <v>122</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>229</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -14118,7 +14118,7 @@
         <v>124</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>102</v>
@@ -14132,13 +14132,13 @@
         <v>124</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39">
@@ -14146,13 +14146,13 @@
         <v>124</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40">
@@ -14160,7 +14160,7 @@
         <v>124</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>102</v>
@@ -14174,7 +14174,7 @@
         <v>124</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>102</v>
@@ -14188,13 +14188,13 @@
         <v>124</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
@@ -14202,7 +14202,7 @@
         <v>124</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>102</v>
@@ -14216,13 +14216,13 @@
         <v>124</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -14230,13 +14230,13 @@
         <v>124</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>136</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -14250,7 +14250,7 @@
         <v>102</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47">
@@ -14258,13 +14258,13 @@
         <v>124</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>13</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48">
@@ -14272,13 +14272,13 @@
         <v>124</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49">
@@ -14286,7 +14286,7 @@
         <v>124</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>102</v>
@@ -14300,13 +14300,13 @@
         <v>124</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
@@ -14320,7 +14320,7 @@
         <v>102</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -14328,13 +14328,13 @@
         <v>81</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -14342,13 +14342,13 @@
         <v>81</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>154</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54">
@@ -14356,7 +14356,7 @@
         <v>81</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>102</v>
@@ -14370,13 +14370,13 @@
         <v>81</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -14384,13 +14384,13 @@
         <v>81</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
@@ -14398,7 +14398,7 @@
         <v>81</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>102</v>
@@ -14412,13 +14412,13 @@
         <v>81</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59">
@@ -14440,7 +14440,7 @@
         <v>158</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>102</v>
@@ -14454,7 +14454,7 @@
         <v>158</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>102</v>
@@ -14468,7 +14468,7 @@
         <v>158</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>102</v>
@@ -14496,7 +14496,7 @@
         <v>158</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>102</v>
@@ -14510,7 +14510,7 @@
         <v>158</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>102</v>
@@ -14524,7 +14524,7 @@
         <v>158</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>102</v>
@@ -14538,7 +14538,7 @@
         <v>158</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>102</v>
@@ -14580,13 +14580,13 @@
         <v>164</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71">
@@ -14594,13 +14594,13 @@
         <v>166</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72">
@@ -14614,7 +14614,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
@@ -14622,13 +14622,13 @@
         <v>166</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74">
@@ -14642,7 +14642,7 @@
         <v>102</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
@@ -14656,7 +14656,7 @@
         <v>102</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76">
@@ -14678,13 +14678,13 @@
         <v>190</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>85</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78">
@@ -14692,13 +14692,13 @@
         <v>190</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -14712,7 +14712,7 @@
         <v>102</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
@@ -14726,7 +14726,7 @@
         <v>102</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81">
@@ -14768,7 +14768,7 @@
         <v>102</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>228</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84">
@@ -14776,13 +14776,13 @@
         <v>212</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>94</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85">
@@ -14790,13 +14790,13 @@
         <v>212</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>268</v>
+        <v>228</v>
       </c>
     </row>
     <row r="86">
@@ -14804,7 +14804,7 @@
         <v>212</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>102</v>
@@ -14818,13 +14818,13 @@
         <v>212</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88">
@@ -14832,13 +14832,13 @@
         <v>212</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>263</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89">
@@ -14846,7 +14846,7 @@
         <v>218</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>102</v>
@@ -14860,13 +14860,13 @@
         <v>218</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
@@ -14874,13 +14874,13 @@
         <v>218</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92">
@@ -14888,7 +14888,7 @@
         <v>218</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>102</v>
@@ -14902,13 +14902,13 @@
         <v>218</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>102</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94">
